--- a/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/2 PROCEDIMIENTOS  ANALITICOS/4 ANÁLISIS HORIZONTAL DE BALANCE GENERAL.xlsx
+++ b/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/2 PROCEDIMIENTOS  ANALITICOS/4 ANÁLISIS HORIZONTAL DE BALANCE GENERAL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base\2 ESTRATEGIA Y PLAN DE AUDITORIA\2 PROCEDIMIENTOS  ANALITICOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\2 ESTRATEGIA Y PLAN DE AUDITORIA\2 PROCEDIMIENTOS  ANALITICOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569A0640-56EE-4996-A611-98C3B15E71F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A218F8-114F-4568-AADE-3021E5C6532B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="885" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="98">
   <si>
     <t xml:space="preserve">Conclusiones: </t>
   </si>
@@ -297,12 +297,6 @@
   </si>
   <si>
     <t>En resumen, el análisis horizoantal del Estado de Resultados proporciona una visión detallada de la evolución de la</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                             Auditoría de Estados Financieros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                               Del 01 de Enero al 31 de Diciembre de 2024</t>
   </si>
   <si>
     <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
@@ -877,7 +871,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1130,9 +1124,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1724,8 +1715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1743,10 +1734,10 @@
   <sheetData>
     <row r="2" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="106" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I2" s="90" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1788,7 +1779,7 @@
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="27"/>
       <c r="C8" s="108" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D8" s="108"/>
       <c r="E8" s="108"/>
@@ -1799,25 +1790,25 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="27"/>
-      <c r="C9" s="109" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
+      <c r="C9" s="108" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="27"/>
-      <c r="C10" s="109" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
+      <c r="C10" s="108" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
       <c r="L10" s="47"/>
@@ -1825,7 +1816,7 @@
     <row r="11" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="107" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
@@ -1850,7 +1841,7 @@
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="93" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C13" s="92"/>
       <c r="D13" s="92"/>
@@ -1874,7 +1865,7 @@
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="93" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C15" s="92"/>
       <c r="D15" s="92"/>
@@ -1982,7 +1973,7 @@
         <v>5</v>
       </c>
       <c r="F23" s="65" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G23" s="66" t="s">
         <v>52</v>
@@ -2214,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="103">
-        <f t="shared" ref="E27:E36" si="2">SUM(D36-C36)</f>
+        <f t="shared" ref="E36" si="2">SUM(D36-C36)</f>
         <v>0</v>
       </c>
       <c r="F36" s="12"/>
@@ -2225,7 +2216,7 @@
     </row>
     <row r="37" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B37" s="95" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C37" s="99"/>
       <c r="D37" s="99"/>
@@ -2345,7 +2336,7 @@
     </row>
     <row r="44" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C44" s="97"/>
       <c r="D44" s="97"/>
@@ -2376,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="104">
-        <f t="shared" ref="E39:E45" si="5">SUM(D45-C45)</f>
+        <f t="shared" ref="E45" si="5">SUM(D45-C45)</f>
         <v>0</v>
       </c>
       <c r="F45" s="41"/>
@@ -2810,8 +2801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:J91"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showWhiteSpace="0" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2829,10 +2820,10 @@
   <sheetData>
     <row r="2" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="106" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I2" s="90" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2873,7 +2864,7 @@
     </row>
     <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="108" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C8" s="108"/>
       <c r="D8" s="108"/>
@@ -2885,7 +2876,7 @@
     </row>
     <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="108" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C9" s="108"/>
       <c r="D9" s="108"/>
@@ -2896,25 +2887,25 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="110" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
+      <c r="B10" s="109" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
       <c r="G10" s="1"/>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
       <c r="G11" s="94"/>
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
